--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Plxnb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Plxnb3</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H2">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I2">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J2">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1544616666666667</v>
+        <v>0.2655006666666667</v>
       </c>
       <c r="N2">
-        <v>0.463385</v>
+        <v>0.796502</v>
       </c>
       <c r="O2">
-        <v>0.03143355204123913</v>
+        <v>0.07553755050879367</v>
       </c>
       <c r="P2">
-        <v>0.03143355204123912</v>
+        <v>0.07553755050879368</v>
       </c>
       <c r="Q2">
-        <v>0.06087550529666666</v>
+        <v>0.3185661964131111</v>
       </c>
       <c r="R2">
-        <v>0.5478795476699999</v>
+        <v>2.867095767718</v>
       </c>
       <c r="S2">
-        <v>0.001207299316569538</v>
+        <v>0.01172999849870389</v>
       </c>
       <c r="T2">
-        <v>0.001207299316569538</v>
+        <v>0.01172999849870389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H3">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I3">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J3">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.497048</v>
       </c>
       <c r="O3">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="P3">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="Q3">
-        <v>0.06529785849066666</v>
+        <v>0.1987976060257778</v>
       </c>
       <c r="R3">
-        <v>0.5876807264159999</v>
+        <v>1.789178454232</v>
       </c>
       <c r="S3">
-        <v>0.001295004608915385</v>
+        <v>0.007319971944557292</v>
       </c>
       <c r="T3">
-        <v>0.001295004608915385</v>
+        <v>0.007319971944557292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H4">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I4">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J4">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7030826666666666</v>
+        <v>0.117513</v>
       </c>
       <c r="N4">
-        <v>2.109248</v>
+        <v>0.352539</v>
       </c>
       <c r="O4">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="P4">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="Q4">
-        <v>0.2770947220906666</v>
+        <v>0.141000284139</v>
       </c>
       <c r="R4">
-        <v>2.493852498816</v>
+        <v>1.269002557251</v>
       </c>
       <c r="S4">
-        <v>0.005495416702905068</v>
+        <v>0.005191803587102821</v>
       </c>
       <c r="T4">
-        <v>0.005495416702905068</v>
+        <v>0.00519180358710282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H5">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I5">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J5">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.360379666666667</v>
+        <v>1.356866</v>
       </c>
       <c r="N5">
-        <v>4.081139</v>
+        <v>4.070598</v>
       </c>
       <c r="O5">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="P5">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="Q5">
-        <v>0.5361446719486666</v>
+        <v>1.628062355131333</v>
       </c>
       <c r="R5">
-        <v>4.825302047537999</v>
+        <v>14.652561196182</v>
       </c>
       <c r="S5">
-        <v>0.01063296465255735</v>
+        <v>0.05994725490811959</v>
       </c>
       <c r="T5">
-        <v>0.01063296465255735</v>
+        <v>0.05994725490811959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H6">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I6">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J6">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.106323</v>
+        <v>1.355056333333333</v>
       </c>
       <c r="N6">
-        <v>3.318969</v>
+        <v>4.065169</v>
       </c>
       <c r="O6">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="P6">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="Q6">
-        <v>0.4360173828219999</v>
+        <v>1.625890990991222</v>
       </c>
       <c r="R6">
-        <v>3.924156445397999</v>
+        <v>14.633018918921</v>
       </c>
       <c r="S6">
-        <v>0.008647213451914678</v>
+        <v>0.05986730261440349</v>
       </c>
       <c r="T6">
-        <v>0.008647213451914678</v>
+        <v>0.05986730261440348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H7">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I7">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J7">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.423981</v>
+        <v>0.2541983333333334</v>
       </c>
       <c r="N7">
-        <v>4.271942999999999</v>
+        <v>0.762595</v>
       </c>
       <c r="O7">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="P7">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="Q7">
-        <v>0.5612108478339998</v>
+        <v>0.3050048694838889</v>
       </c>
       <c r="R7">
-        <v>5.050897630505998</v>
+        <v>2.745043825355</v>
       </c>
       <c r="S7">
-        <v>0.01113008376258192</v>
+        <v>0.01123065379009607</v>
       </c>
       <c r="T7">
-        <v>0.01113008376258192</v>
+        <v>0.01123065379009606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>10.630371</v>
       </c>
       <c r="I8">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J8">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1544616666666667</v>
+        <v>0.2655006666666667</v>
       </c>
       <c r="N8">
-        <v>0.463385</v>
+        <v>0.796502</v>
       </c>
       <c r="O8">
-        <v>0.03143355204123913</v>
+        <v>0.07553755050879367</v>
       </c>
       <c r="P8">
-        <v>0.03143355204123912</v>
+        <v>0.07553755050879368</v>
       </c>
       <c r="Q8">
-        <v>0.5473282739816667</v>
+        <v>0.9407901958046667</v>
       </c>
       <c r="R8">
-        <v>4.925954465835001</v>
+        <v>8.467111762242</v>
       </c>
       <c r="S8">
-        <v>0.01085476084177052</v>
+        <v>0.03464105014479778</v>
       </c>
       <c r="T8">
-        <v>0.01085476084177052</v>
+        <v>0.03464105014479778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.630371</v>
       </c>
       <c r="I9">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J9">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.497048</v>
       </c>
       <c r="O9">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="P9">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="Q9">
         <v>0.5870894049786667</v>
@@ -1013,10 +1013,10 @@
         <v>5.283804644808</v>
       </c>
       <c r="S9">
-        <v>0.01164331423520475</v>
+        <v>0.02161735274032137</v>
       </c>
       <c r="T9">
-        <v>0.01164331423520475</v>
+        <v>0.02161735274032137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>10.630371</v>
       </c>
       <c r="I10">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J10">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7030826666666666</v>
+        <v>0.117513</v>
       </c>
       <c r="N10">
-        <v>2.109248</v>
+        <v>0.352539</v>
       </c>
       <c r="O10">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="P10">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="Q10">
-        <v>2.491343196778667</v>
+        <v>0.416402262441</v>
       </c>
       <c r="R10">
-        <v>22.422088771008</v>
+        <v>3.747620361969</v>
       </c>
       <c r="S10">
-        <v>0.04940898517643598</v>
+        <v>0.01533244257641144</v>
       </c>
       <c r="T10">
-        <v>0.04940898517643598</v>
+        <v>0.01533244257641144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>10.630371</v>
       </c>
       <c r="I11">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J11">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.360379666666667</v>
+        <v>1.356866</v>
       </c>
       <c r="N11">
-        <v>4.081139</v>
+        <v>4.070598</v>
       </c>
       <c r="O11">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="P11">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="Q11">
-        <v>4.820446852507667</v>
+        <v>4.807996325762001</v>
       </c>
       <c r="R11">
-        <v>43.38402167256901</v>
+        <v>43.271966931858</v>
       </c>
       <c r="S11">
-        <v>0.09560039234550644</v>
+        <v>0.1770363281414404</v>
       </c>
       <c r="T11">
-        <v>0.09560039234550644</v>
+        <v>0.1770363281414404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>10.630371</v>
       </c>
       <c r="I12">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J12">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.106323</v>
+        <v>1.355056333333333</v>
       </c>
       <c r="N12">
-        <v>3.318969</v>
+        <v>4.065169</v>
       </c>
       <c r="O12">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="P12">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="Q12">
-        <v>3.920207978611</v>
+        <v>4.801583849744333</v>
       </c>
       <c r="R12">
-        <v>35.281871807499</v>
+        <v>43.214254647699</v>
       </c>
       <c r="S12">
-        <v>0.0777466140169627</v>
+        <v>0.1768002129010065</v>
       </c>
       <c r="T12">
-        <v>0.0777466140169627</v>
+        <v>0.1768002129010065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>10.630371</v>
       </c>
       <c r="I13">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J13">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.423981</v>
+        <v>0.2541983333333334</v>
       </c>
       <c r="N13">
-        <v>4.271942999999999</v>
+        <v>0.762595</v>
       </c>
       <c r="O13">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="P13">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="Q13">
-        <v>5.045815442316999</v>
+        <v>0.9007408636383335</v>
       </c>
       <c r="R13">
-        <v>45.41233898085299</v>
+        <v>8.106667772745</v>
       </c>
       <c r="S13">
-        <v>0.1000699625466419</v>
+        <v>0.03316638456045568</v>
       </c>
       <c r="T13">
-        <v>0.1000699625466419</v>
+        <v>0.03316638456045568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H14">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I14">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J14">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1544616666666667</v>
+        <v>0.2655006666666667</v>
       </c>
       <c r="N14">
-        <v>0.463385</v>
+        <v>0.796502</v>
       </c>
       <c r="O14">
-        <v>0.03143355204123913</v>
+        <v>0.07553755050879367</v>
       </c>
       <c r="P14">
-        <v>0.03143355204123912</v>
+        <v>0.07553755050879368</v>
       </c>
       <c r="Q14">
-        <v>0.002428394836111111</v>
+        <v>0.7921110614744445</v>
       </c>
       <c r="R14">
-        <v>0.021855553525</v>
+        <v>7.128999553270001</v>
       </c>
       <c r="S14">
-        <v>4.816057643727643E-05</v>
+        <v>0.029166501865292</v>
       </c>
       <c r="T14">
-        <v>4.816057643727642E-05</v>
+        <v>0.029166501865292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H15">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I15">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J15">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.497048</v>
       </c>
       <c r="O15">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="P15">
-        <v>0.03371706933757852</v>
+        <v>0.04713834793295545</v>
       </c>
       <c r="Q15">
-        <v>0.002604807657777778</v>
+        <v>0.4943078848311112</v>
       </c>
       <c r="R15">
-        <v>0.02344326892</v>
+        <v>4.44877096348</v>
       </c>
       <c r="S15">
-        <v>5.165924273982836E-05</v>
+        <v>0.01820102324807679</v>
       </c>
       <c r="T15">
-        <v>5.165924273982836E-05</v>
+        <v>0.01820102324807679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H16">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I16">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J16">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7030826666666666</v>
+        <v>0.117513</v>
       </c>
       <c r="N16">
-        <v>2.109248</v>
+        <v>0.352539</v>
       </c>
       <c r="O16">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="P16">
-        <v>0.1430800668469621</v>
+        <v>0.0334336040823747</v>
       </c>
       <c r="Q16">
-        <v>0.01105363132444444</v>
+        <v>0.350595530835</v>
       </c>
       <c r="R16">
-        <v>0.09948268192</v>
+        <v>3.155359777515</v>
       </c>
       <c r="S16">
-        <v>0.0002192185753297418</v>
+        <v>0.01290935791886043</v>
       </c>
       <c r="T16">
-        <v>0.0002192185753297418</v>
+        <v>0.01290935791886043</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H17">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I17">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J17">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.360379666666667</v>
+        <v>1.356866</v>
       </c>
       <c r="N17">
-        <v>4.081139</v>
+        <v>4.070598</v>
       </c>
       <c r="O17">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="P17">
-        <v>0.2768425718226326</v>
+        <v>0.3860417199529876</v>
       </c>
       <c r="Q17">
-        <v>0.02138743565944444</v>
+        <v>4.048157697803334</v>
       </c>
       <c r="R17">
-        <v>0.192486920935</v>
+        <v>36.43341928023001</v>
       </c>
       <c r="S17">
-        <v>0.0004241613491171485</v>
+        <v>0.1490581369034276</v>
       </c>
       <c r="T17">
-        <v>0.0004241613491171485</v>
+        <v>0.1490581369034276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H18">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I18">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J18">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.106323</v>
+        <v>1.355056333333333</v>
       </c>
       <c r="N18">
-        <v>3.318969</v>
+        <v>4.065169</v>
       </c>
       <c r="O18">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="P18">
-        <v>0.2251410485552173</v>
+        <v>0.3855268519906821</v>
       </c>
       <c r="Q18">
-        <v>0.01739324143166666</v>
+        <v>4.04275862667389</v>
       </c>
       <c r="R18">
-        <v>0.156539172885</v>
+        <v>36.38482764006501</v>
       </c>
       <c r="S18">
-        <v>0.0003449474200016204</v>
+        <v>0.1488593364752721</v>
       </c>
       <c r="T18">
-        <v>0.0003449474200016204</v>
+        <v>0.1488593364752721</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H19">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I19">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J19">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.423981</v>
+        <v>0.2541983333333334</v>
       </c>
       <c r="N19">
-        <v>4.271942999999999</v>
+        <v>0.762595</v>
       </c>
       <c r="O19">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="P19">
-        <v>0.2897856913963705</v>
+        <v>0.07232192553220647</v>
       </c>
       <c r="Q19">
-        <v>0.02238735462166666</v>
+        <v>0.7583909832305556</v>
       </c>
       <c r="R19">
-        <v>0.201486191595</v>
+        <v>6.825518849075001</v>
       </c>
       <c r="S19">
-        <v>0.0004439920096403377</v>
+        <v>0.02792488718165472</v>
       </c>
       <c r="T19">
-        <v>0.0004439920096403377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H20">
-        <v>18.923879</v>
-      </c>
-      <c r="I20">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J20">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.1544616666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.463385</v>
-      </c>
-      <c r="O20">
-        <v>0.03143355204123913</v>
-      </c>
-      <c r="P20">
-        <v>0.03143355204123912</v>
-      </c>
-      <c r="Q20">
-        <v>0.9743379633794446</v>
-      </c>
-      <c r="R20">
-        <v>8.769041670415001</v>
-      </c>
-      <c r="S20">
-        <v>0.01932333130646179</v>
-      </c>
-      <c r="T20">
-        <v>0.01932333130646179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H21">
-        <v>18.923879</v>
-      </c>
-      <c r="I21">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J21">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1656826666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.497048</v>
-      </c>
-      <c r="O21">
-        <v>0.03371706933757852</v>
-      </c>
-      <c r="P21">
-        <v>0.03371706933757852</v>
-      </c>
-      <c r="Q21">
-        <v>1.045119578799111</v>
-      </c>
-      <c r="R21">
-        <v>9.406076209191999</v>
-      </c>
-      <c r="S21">
-        <v>0.02072709125071855</v>
-      </c>
-      <c r="T21">
-        <v>0.02072709125071855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H22">
-        <v>18.923879</v>
-      </c>
-      <c r="I22">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J22">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.7030826666666666</v>
-      </c>
-      <c r="N22">
-        <v>2.109248</v>
-      </c>
-      <c r="O22">
-        <v>0.1430800668469621</v>
-      </c>
-      <c r="P22">
-        <v>0.1430800668469621</v>
-      </c>
-      <c r="Q22">
-        <v>4.435017103665778</v>
-      </c>
-      <c r="R22">
-        <v>39.915153932992</v>
-      </c>
-      <c r="S22">
-        <v>0.0879564463922913</v>
-      </c>
-      <c r="T22">
-        <v>0.0879564463922913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H23">
-        <v>18.923879</v>
-      </c>
-      <c r="I23">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J23">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.360379666666667</v>
-      </c>
-      <c r="N23">
-        <v>4.081139</v>
-      </c>
-      <c r="O23">
-        <v>0.2768425718226326</v>
-      </c>
-      <c r="P23">
-        <v>0.2768425718226326</v>
-      </c>
-      <c r="Q23">
-        <v>8.581220068686777</v>
-      </c>
-      <c r="R23">
-        <v>77.23098061818101</v>
-      </c>
-      <c r="S23">
-        <v>0.1701850534754516</v>
-      </c>
-      <c r="T23">
-        <v>0.1701850534754516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H24">
-        <v>18.923879</v>
-      </c>
-      <c r="I24">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J24">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.106323</v>
-      </c>
-      <c r="N24">
-        <v>3.318969</v>
-      </c>
-      <c r="O24">
-        <v>0.2251410485552173</v>
-      </c>
-      <c r="P24">
-        <v>0.2251410485552173</v>
-      </c>
-      <c r="Q24">
-        <v>6.978640862305665</v>
-      </c>
-      <c r="R24">
-        <v>62.807767760751</v>
-      </c>
-      <c r="S24">
-        <v>0.1384022736663383</v>
-      </c>
-      <c r="T24">
-        <v>0.1384022736663383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H25">
-        <v>18.923879</v>
-      </c>
-      <c r="I25">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J25">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.423981</v>
-      </c>
-      <c r="N25">
-        <v>4.271942999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.2897856913963705</v>
-      </c>
-      <c r="P25">
-        <v>0.2897856913963705</v>
-      </c>
-      <c r="Q25">
-        <v>8.982414714099665</v>
-      </c>
-      <c r="R25">
-        <v>80.84173242689698</v>
-      </c>
-      <c r="S25">
-        <v>0.1781416530775063</v>
-      </c>
-      <c r="T25">
-        <v>0.1781416530775063</v>
+        <v>0.02792488718165472</v>
       </c>
     </row>
   </sheetData>
